--- a/Prefered_PARX_model_forecast/Resultater_PARX/KLIC_PARX2.xlsx
+++ b/Prefered_PARX_model_forecast/Resultater_PARX/KLIC_PARX2.xlsx
@@ -28,7 +28,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -38,14 +38,22 @@
     </border>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -668,1717 +676,1717 @@
     </row>
     <row r="122">
       <c r="A122">
-        <v>-1.2969984545168713</v>
+        <v>-1.2969974515878449</v>
       </c>
     </row>
     <row r="123">
       <c r="A123">
-        <v>-1.0858050249654003</v>
+        <v>-1.0858044268269336</v>
       </c>
     </row>
     <row r="124">
       <c r="A124">
-        <v>-0.90955048877951794</v>
+        <v>-0.90954880685676476</v>
       </c>
     </row>
     <row r="125">
       <c r="A125">
-        <v>-0.90975959096105785</v>
+        <v>-0.90975828062166053</v>
       </c>
     </row>
     <row r="126">
       <c r="A126">
-        <v>-1.1270476326124956</v>
+        <v>-1.1270464401210087</v>
       </c>
     </row>
     <row r="127">
       <c r="A127">
-        <v>-0.80478040301145781</v>
+        <v>-0.80477958338875222</v>
       </c>
     </row>
     <row r="128">
       <c r="A128">
-        <v>-0.71463881709002475</v>
+        <v>-0.71463807496356258</v>
       </c>
     </row>
     <row r="129">
       <c r="A129">
-        <v>-0.69206554021776923</v>
+        <v>-0.69206489794914927</v>
       </c>
     </row>
     <row r="130">
       <c r="A130">
-        <v>-0.6955008538866686</v>
+        <v>-0.69550025718202968</v>
       </c>
     </row>
     <row r="131">
       <c r="A131">
-        <v>-0.59720206029926715</v>
+        <v>-0.59720182966107127</v>
       </c>
     </row>
     <row r="132">
       <c r="A132">
-        <v>-0.37503418371488645</v>
+        <v>-0.37503402369698308</v>
       </c>
     </row>
     <row r="133">
       <c r="A133">
-        <v>-0.16181285996113828</v>
+        <v>-0.16181287435919717</v>
       </c>
     </row>
     <row r="134">
       <c r="A134">
-        <v>-0.13166665745634937</v>
+        <v>-0.13166666956824025</v>
       </c>
     </row>
     <row r="135">
       <c r="A135">
-        <v>-0.11233696932390631</v>
+        <v>-0.11233696233666832</v>
       </c>
     </row>
     <row r="136">
       <c r="A136">
-        <v>-0.11731352562304274</v>
+        <v>-0.11731351273719449</v>
       </c>
     </row>
     <row r="137">
       <c r="A137">
-        <v>-0.16131704844258032</v>
+        <v>-0.16131705494107779</v>
       </c>
     </row>
     <row r="138">
       <c r="A138">
-        <v>-0.083921561781268555</v>
+        <v>-0.083921592050600929</v>
       </c>
     </row>
     <row r="139">
       <c r="A139">
-        <v>-0.072508112186826817</v>
+        <v>-0.072508157350668109</v>
       </c>
     </row>
     <row r="140">
       <c r="A140">
-        <v>-0.087873053650136576</v>
+        <v>-0.087873097716785115</v>
       </c>
     </row>
     <row r="141">
       <c r="A141">
-        <v>-0.11893525139180343</v>
+        <v>-0.11893524082050896</v>
       </c>
     </row>
     <row r="142">
       <c r="A142">
-        <v>-0.10238996986521079</v>
+        <v>-0.10238992997413933</v>
       </c>
     </row>
     <row r="143">
       <c r="A143">
-        <v>-0.12480771165401928</v>
+        <v>-0.12480767256520982</v>
       </c>
     </row>
     <row r="144">
       <c r="A144">
-        <v>-0.16477209287927608</v>
+        <v>-0.16477207270960148</v>
       </c>
     </row>
     <row r="145">
       <c r="A145">
-        <v>0.072588900888483424</v>
+        <v>0.072588804419065303</v>
       </c>
     </row>
     <row r="146">
       <c r="A146">
-        <v>-0.015674202289251451</v>
+        <v>-0.015674271827150275</v>
       </c>
     </row>
     <row r="147">
       <c r="A147">
-        <v>-0.032990183197653677</v>
+        <v>-0.032990038231934353</v>
       </c>
     </row>
     <row r="148">
       <c r="A148">
-        <v>0.045909450641311321</v>
+        <v>0.04590958978744205</v>
       </c>
     </row>
     <row r="149">
       <c r="A149">
-        <v>0.10180631601597408</v>
+        <v>0.10180649415445543</v>
       </c>
     </row>
     <row r="150">
       <c r="A150">
-        <v>0.095348971785850264</v>
+        <v>0.095349157441783919</v>
       </c>
     </row>
     <row r="151">
       <c r="A151">
-        <v>0.072066191825694084</v>
+        <v>0.072066328926391338</v>
       </c>
     </row>
     <row r="152">
       <c r="A152">
-        <v>0.07745316303823134</v>
+        <v>0.077453300025295005</v>
       </c>
     </row>
     <row r="153">
       <c r="A153">
-        <v>0.064544605196875673</v>
+        <v>0.064544733994156042</v>
       </c>
     </row>
     <row r="154">
       <c r="A154">
-        <v>0.053898847345943253</v>
+        <v>0.053898855403217552</v>
       </c>
     </row>
     <row r="155">
       <c r="A155">
-        <v>0.011397995159259088</v>
+        <v>0.011397997610106339</v>
       </c>
     </row>
     <row r="156">
       <c r="A156">
-        <v>-0.04117828304042577</v>
+        <v>-0.041178279835654197</v>
       </c>
     </row>
     <row r="157">
       <c r="A157">
-        <v>-0.067360626389865105</v>
+        <v>-0.067360623990379814</v>
       </c>
     </row>
     <row r="158">
       <c r="A158">
-        <v>-0.12950549598763966</v>
+        <v>-0.12950547916844038</v>
       </c>
     </row>
     <row r="159">
       <c r="A159">
-        <v>-0.033482178694960646</v>
+        <v>-0.033482111126716903</v>
       </c>
     </row>
     <row r="160">
       <c r="A160">
-        <v>-0.071319826632845848</v>
+        <v>-0.071319749096037305</v>
       </c>
     </row>
     <row r="161">
       <c r="A161">
-        <v>-0.10257985960277563</v>
+        <v>-0.10257985668919484</v>
       </c>
     </row>
     <row r="162">
       <c r="A162">
-        <v>-0.10208365023112645</v>
+        <v>-0.10208365703695003</v>
       </c>
     </row>
     <row r="163">
       <c r="A163">
-        <v>-0.055209272597708338</v>
+        <v>-0.055209263184769701</v>
       </c>
     </row>
     <row r="164">
       <c r="A164">
-        <v>0.11516595541631675</v>
+        <v>0.11516613524923053</v>
       </c>
     </row>
     <row r="165">
       <c r="A165">
-        <v>0.28927212899293425</v>
+        <v>0.28927229681193822</v>
       </c>
     </row>
     <row r="166">
       <c r="A166">
-        <v>0.42634449535060709</v>
+        <v>0.42634467273911825</v>
       </c>
     </row>
     <row r="167">
       <c r="A167">
-        <v>0.49168246587697806</v>
+        <v>0.49168264162669345</v>
       </c>
     </row>
     <row r="168">
       <c r="A168">
-        <v>0.64500415835664648</v>
+        <v>0.64500424506457577</v>
       </c>
     </row>
     <row r="169">
       <c r="A169">
-        <v>0.9471295429077774</v>
+        <v>0.9471296892853881</v>
       </c>
     </row>
     <row r="170">
       <c r="A170">
-        <v>1.1639520899083067</v>
+        <v>1.1639522684047177</v>
       </c>
     </row>
     <row r="171">
       <c r="A171">
-        <v>1.5001884344753722</v>
+        <v>1.5001886001997842</v>
       </c>
     </row>
     <row r="172">
       <c r="A172">
-        <v>1.6849678230274772</v>
+        <v>1.6849679750288711</v>
       </c>
     </row>
     <row r="173">
       <c r="A173">
-        <v>1.9631711976982202</v>
+        <v>1.9631714090511574</v>
       </c>
     </row>
     <row r="174">
       <c r="A174">
-        <v>2.2292968481825151</v>
+        <v>2.2292970505314127</v>
       </c>
     </row>
     <row r="175">
       <c r="A175">
-        <v>2.6778480188841773</v>
+        <v>2.6778481907331182</v>
       </c>
     </row>
     <row r="176">
       <c r="A176">
-        <v>2.9412907125983625</v>
+        <v>2.9412908934407658</v>
       </c>
     </row>
     <row r="177">
       <c r="A177">
-        <v>3.1792899977948159</v>
+        <v>3.1792901605866248</v>
       </c>
     </row>
     <row r="178">
       <c r="A178">
-        <v>3.6594533888691534</v>
+        <v>3.6594534988943472</v>
       </c>
     </row>
     <row r="179">
       <c r="A179">
-        <v>4.1002122302846784</v>
+        <v>4.1002122963483867</v>
       </c>
     </row>
     <row r="180">
       <c r="A180">
-        <v>4.6225486685926205</v>
+        <v>4.6225487489772945</v>
       </c>
     </row>
     <row r="181">
       <c r="A181">
-        <v>4.8820350332758888</v>
+        <v>4.8820351207187374</v>
       </c>
     </row>
     <row r="182">
       <c r="A182">
-        <v>5.3423757999614114</v>
+        <v>5.3423757779712657</v>
       </c>
     </row>
     <row r="183">
       <c r="A183">
-        <v>5.9399164253216199</v>
+        <v>5.9399164103187134</v>
       </c>
     </row>
     <row r="184">
       <c r="A184">
-        <v>6.302267555002091</v>
+        <v>6.302267577251266</v>
       </c>
     </row>
     <row r="185">
       <c r="A185">
-        <v>6.4439253538769892</v>
+        <v>6.4439253942920089</v>
       </c>
     </row>
     <row r="186">
       <c r="A186">
-        <v>6.6964332837921878</v>
+        <v>6.6964332665784578</v>
       </c>
     </row>
     <row r="187">
       <c r="A187">
-        <v>7.112417552781447</v>
+        <v>7.1124177120759517</v>
       </c>
     </row>
     <row r="188">
       <c r="A188">
-        <v>7.3002906870842912</v>
+        <v>7.3002908291130169</v>
       </c>
     </row>
     <row r="189">
       <c r="A189">
-        <v>7.5785441819857704</v>
+        <v>7.5785443479158259</v>
       </c>
     </row>
     <row r="190">
       <c r="A190">
-        <v>7.9606533996422728</v>
+        <v>7.9606535935873044</v>
       </c>
     </row>
     <row r="191">
       <c r="A191">
-        <v>8.2614557102536743</v>
+        <v>8.2614559388811344</v>
       </c>
     </row>
     <row r="192">
       <c r="A192">
-        <v>8.3362424192607349</v>
+        <v>8.3362426234779363</v>
       </c>
     </row>
     <row r="193">
       <c r="A193">
-        <v>8.5608993900995181</v>
+        <v>8.5608996178439529</v>
       </c>
     </row>
     <row r="194">
       <c r="A194">
-        <v>9.1935598047550506</v>
+        <v>9.1935602068005586</v>
       </c>
     </row>
     <row r="195">
       <c r="A195">
-        <v>9.2445371761935089</v>
+        <v>9.2445375740533127</v>
       </c>
     </row>
     <row r="196">
       <c r="A196">
-        <v>9.3775241108973919</v>
+        <v>9.3775245229604991</v>
       </c>
     </row>
     <row r="197">
       <c r="A197">
-        <v>9.3734219831412755</v>
+        <v>9.3734223996294599</v>
       </c>
     </row>
     <row r="198">
       <c r="A198">
-        <v>9.4306763275869177</v>
+        <v>9.4306767379689642</v>
       </c>
     </row>
     <row r="199">
       <c r="A199">
-        <v>9.5227998485078835</v>
+        <v>9.5228002305040036</v>
       </c>
     </row>
     <row r="200">
       <c r="A200">
-        <v>9.6022450599277178</v>
+        <v>9.6022454283754808</v>
       </c>
     </row>
     <row r="201">
       <c r="A201">
-        <v>9.9707625788870242</v>
+        <v>9.970762903631913</v>
       </c>
     </row>
     <row r="202">
       <c r="A202">
-        <v>10.218503555258183</v>
+        <v>10.218503813805114</v>
       </c>
     </row>
     <row r="203">
       <c r="A203">
-        <v>10.493676363386268</v>
+        <v>10.493676595353277</v>
       </c>
     </row>
     <row r="204">
       <c r="A204">
-        <v>10.751001101293449</v>
+        <v>10.751001301042558</v>
       </c>
     </row>
     <row r="205">
       <c r="A205">
-        <v>10.998768462227867</v>
+        <v>10.998768701821165</v>
       </c>
     </row>
     <row r="206">
       <c r="A206">
-        <v>11.114461772083814</v>
+        <v>11.114462014940495</v>
       </c>
     </row>
     <row r="207">
       <c r="A207">
-        <v>11.4014108734908</v>
+        <v>11.401410982397184</v>
       </c>
     </row>
     <row r="208">
       <c r="A208">
-        <v>11.843487531635851</v>
+        <v>11.843487579863602</v>
       </c>
     </row>
     <row r="209">
       <c r="A209">
-        <v>12.0732522283013</v>
+        <v>12.073252257105475</v>
       </c>
     </row>
     <row r="210">
       <c r="A210">
-        <v>12.405846387104235</v>
+        <v>12.405846405689612</v>
       </c>
     </row>
     <row r="211">
       <c r="A211">
-        <v>12.590801088431775</v>
+        <v>12.590801093737888</v>
       </c>
     </row>
     <row r="212">
       <c r="A212">
-        <v>12.918416336263965</v>
+        <v>12.918416354381241</v>
       </c>
     </row>
     <row r="213">
       <c r="A213">
-        <v>13.168821738636266</v>
+        <v>13.168821711075633</v>
       </c>
     </row>
     <row r="214">
       <c r="A214">
-        <v>13.554051517319524</v>
+        <v>13.554051481624811</v>
       </c>
     </row>
     <row r="215">
       <c r="A215">
-        <v>14.13740985485672</v>
+        <v>14.137410114875449</v>
       </c>
     </row>
     <row r="216">
       <c r="A216">
-        <v>14.796569961794345</v>
+        <v>14.796570169380752</v>
       </c>
     </row>
     <row r="217">
       <c r="A217">
-        <v>15.27262798075089</v>
+        <v>15.27262814819469</v>
       </c>
     </row>
     <row r="218">
       <c r="A218">
-        <v>15.859772759636453</v>
+        <v>15.859772901374434</v>
       </c>
     </row>
     <row r="219">
       <c r="A219">
-        <v>16.370728699916075</v>
+        <v>16.37072884333752</v>
       </c>
     </row>
     <row r="220">
       <c r="A220">
-        <v>17.016402619126637</v>
+        <v>17.016402792191634</v>
       </c>
     </row>
     <row r="221">
       <c r="A221">
-        <v>17.647411785063387</v>
+        <v>17.64741187135677</v>
       </c>
     </row>
     <row r="222">
       <c r="A222">
-        <v>18.445877234750377</v>
+        <v>18.44587750070313</v>
       </c>
     </row>
     <row r="223">
       <c r="A223">
-        <v>19.201438573479923</v>
+        <v>19.201438761527374</v>
       </c>
     </row>
     <row r="224">
       <c r="A224">
-        <v>20.16641401384755</v>
+        <v>20.166414250991679</v>
       </c>
     </row>
     <row r="225">
       <c r="A225">
-        <v>21.059454924274185</v>
+        <v>21.059455106697865</v>
       </c>
     </row>
     <row r="226">
       <c r="A226">
-        <v>21.527711025922997</v>
+        <v>21.52771119752315</v>
       </c>
     </row>
     <row r="227">
       <c r="A227">
-        <v>21.864807583520665</v>
+        <v>21.864807735850164</v>
       </c>
     </row>
     <row r="228">
       <c r="A228">
-        <v>22.369760848903912</v>
+        <v>22.36976097794615</v>
       </c>
     </row>
     <row r="229">
       <c r="A229">
-        <v>23.551990933778001</v>
+        <v>23.551990902141803</v>
       </c>
     </row>
     <row r="230">
       <c r="A230">
-        <v>24.152729644252815</v>
+        <v>24.152729584416566</v>
       </c>
     </row>
     <row r="231">
       <c r="A231">
-        <v>24.938677001041491</v>
+        <v>24.938676929057138</v>
       </c>
     </row>
     <row r="232">
       <c r="A232">
-        <v>25.383277475392813</v>
+        <v>25.383277394179753</v>
       </c>
     </row>
     <row r="233">
       <c r="A233">
-        <v>25.875842998638753</v>
+        <v>25.875842941302846</v>
       </c>
     </row>
     <row r="234">
       <c r="A234">
-        <v>26.260458591652899</v>
+        <v>26.260458532044627</v>
       </c>
     </row>
     <row r="235">
       <c r="A235">
-        <v>26.579737143223291</v>
+        <v>26.579737048199284</v>
       </c>
     </row>
     <row r="236">
       <c r="A236">
-        <v>27.527185366135036</v>
+        <v>27.527185115941485</v>
       </c>
     </row>
     <row r="237">
       <c r="A237">
-        <v>28.749106100937198</v>
+        <v>28.749105782766947</v>
       </c>
     </row>
     <row r="238">
       <c r="A238">
-        <v>29.489016382315764</v>
+        <v>29.489016088341785</v>
       </c>
     </row>
     <row r="239">
       <c r="A239">
-        <v>30.059802410916589</v>
+        <v>30.059802157265878</v>
       </c>
     </row>
     <row r="240">
       <c r="A240">
-        <v>30.583079173613481</v>
+        <v>30.583078875607985</v>
       </c>
     </row>
     <row r="241">
       <c r="A241">
-        <v>30.882463391250948</v>
+        <v>30.882463099241683</v>
       </c>
     </row>
     <row r="242">
       <c r="A242">
-        <v>31.359006929389</v>
+        <v>31.359006591856318</v>
       </c>
     </row>
     <row r="243">
       <c r="A243">
-        <v>32.174111503841672</v>
+        <v>32.174111164437655</v>
       </c>
     </row>
     <row r="244">
       <c r="A244">
-        <v>32.719679407301989</v>
+        <v>32.719679035816725</v>
       </c>
     </row>
     <row r="245">
       <c r="A245">
-        <v>33.343317675248137</v>
+        <v>33.343317279618852</v>
       </c>
     </row>
     <row r="246">
       <c r="A246">
-        <v>33.956197350876963</v>
+        <v>33.956196932075301</v>
       </c>
     </row>
     <row r="247">
       <c r="A247">
-        <v>34.191626553511149</v>
+        <v>34.19162615321175</v>
       </c>
     </row>
     <row r="248">
       <c r="A248">
-        <v>34.392640260144184</v>
+        <v>34.392639830423569</v>
       </c>
     </row>
     <row r="249">
       <c r="A249">
-        <v>34.656645554985076</v>
+        <v>34.656645170914963</v>
       </c>
     </row>
     <row r="250">
       <c r="A250">
-        <v>35.347322571928771</v>
+        <v>35.347322269809737</v>
       </c>
     </row>
     <row r="251">
       <c r="A251">
-        <v>36.075290033677902</v>
+        <v>36.075289709808359</v>
       </c>
     </row>
     <row r="252">
       <c r="A252">
-        <v>36.851090664256922</v>
+        <v>36.851090321086893</v>
       </c>
     </row>
     <row r="253">
       <c r="A253">
-        <v>37.636738966485453</v>
+        <v>37.636738683941189</v>
       </c>
     </row>
     <row r="254">
       <c r="A254">
-        <v>38.376761651521683</v>
+        <v>38.376761313016139</v>
       </c>
     </row>
     <row r="255">
       <c r="A255">
-        <v>39.31313672987028</v>
+        <v>39.313136336725158</v>
       </c>
     </row>
     <row r="256">
       <c r="A256">
-        <v>40.459394780019728</v>
+        <v>40.459394364195632</v>
       </c>
     </row>
     <row r="257">
       <c r="A257">
-        <v>42.386152406248335</v>
+        <v>42.386152197455907</v>
       </c>
     </row>
     <row r="258">
       <c r="A258">
-        <v>43.475504790346648</v>
+        <v>43.475504581265405</v>
       </c>
     </row>
     <row r="259">
       <c r="A259">
-        <v>44.758839425776785</v>
+        <v>44.758839260190513</v>
       </c>
     </row>
     <row r="260">
       <c r="A260">
-        <v>46.508542706816485</v>
+        <v>46.508542583421139</v>
       </c>
     </row>
     <row r="261">
       <c r="A261">
-        <v>48.207701370607985</v>
+        <v>48.207701171206246</v>
       </c>
     </row>
     <row r="262">
       <c r="A262">
-        <v>49.65939735651245</v>
+        <v>49.659397131014558</v>
       </c>
     </row>
     <row r="263">
       <c r="A263">
-        <v>51.492839748115848</v>
+        <v>51.492839455717018</v>
       </c>
     </row>
     <row r="264">
       <c r="A264">
-        <v>54.37695585780093</v>
+        <v>54.376955799453675</v>
       </c>
     </row>
     <row r="265">
       <c r="A265">
-        <v>57.756884896076585</v>
+        <v>57.756884790742042</v>
       </c>
     </row>
     <row r="266">
       <c r="A266">
-        <v>60.886836946446373</v>
+        <v>60.886836832975149</v>
       </c>
     </row>
     <row r="267">
       <c r="A267">
-        <v>64.09609783782912</v>
+        <v>64.096097702822277</v>
       </c>
     </row>
     <row r="268">
       <c r="A268">
-        <v>67.249436779696993</v>
+        <v>67.249436556490735</v>
       </c>
     </row>
     <row r="269">
       <c r="A269">
-        <v>70.455030590496875</v>
+        <v>70.455030355675419</v>
       </c>
     </row>
     <row r="270">
       <c r="A270">
-        <v>73.07259760665923</v>
+        <v>73.072597312737429</v>
       </c>
     </row>
     <row r="271">
       <c r="A271">
-        <v>77.623414817455469</v>
+        <v>77.623414611113972</v>
       </c>
     </row>
     <row r="272">
       <c r="A272">
-        <v>80.810675485125287</v>
+        <v>80.810675118522681</v>
       </c>
     </row>
     <row r="273">
       <c r="A273">
-        <v>83.890888759924707</v>
+        <v>83.890888388999258</v>
       </c>
     </row>
     <row r="274">
       <c r="A274">
-        <v>86.109702760316821</v>
+        <v>86.109702433821056</v>
       </c>
     </row>
     <row r="275">
       <c r="A275">
-        <v>89.304074395539757</v>
+        <v>89.304073925628103</v>
       </c>
     </row>
     <row r="276">
       <c r="A276">
-        <v>92.281771348826098</v>
+        <v>92.281770819476975</v>
       </c>
     </row>
     <row r="277">
       <c r="A277">
-        <v>94.895229280892536</v>
+        <v>94.895228698071335</v>
       </c>
     </row>
     <row r="278">
       <c r="A278">
-        <v>99.887384254379427</v>
+        <v>99.88738365882574</v>
       </c>
     </row>
     <row r="279">
       <c r="A279">
-        <v>102.80602054348419</v>
+        <v>102.8060200384007</v>
       </c>
     </row>
     <row r="280">
       <c r="A280">
-        <v>105.15701021824991</v>
+        <v>105.15700957518966</v>
       </c>
     </row>
     <row r="281">
       <c r="A281">
-        <v>107.13133075221653</v>
+        <v>107.13133012949582</v>
       </c>
     </row>
     <row r="282">
       <c r="A282">
-        <v>109.62445654791087</v>
+        <v>109.62445584539722</v>
       </c>
     </row>
     <row r="283">
       <c r="A283">
-        <v>112.28901846891128</v>
+        <v>112.28901776696335</v>
       </c>
     </row>
     <row r="284">
       <c r="A284">
-        <v>114.13435175884567</v>
+        <v>114.13435111596493</v>
       </c>
     </row>
     <row r="285">
       <c r="A285">
-        <v>117.27948781423369</v>
+        <v>117.27948739836046</v>
       </c>
     </row>
     <row r="286">
       <c r="A286">
-        <v>118.8218732872802</v>
+        <v>118.82187293419537</v>
       </c>
     </row>
     <row r="287">
       <c r="A287">
-        <v>120.68970344083144</v>
+        <v>120.6897031060562</v>
       </c>
     </row>
     <row r="288">
       <c r="A288">
-        <v>122.72816762854464</v>
+        <v>122.72816734858294</v>
       </c>
     </row>
     <row r="289">
       <c r="A289">
-        <v>124.28793518799908</v>
+        <v>124.28793476856002</v>
       </c>
     </row>
     <row r="290">
       <c r="A290">
-        <v>125.69278793334834</v>
+        <v>125.69278750735012</v>
       </c>
     </row>
     <row r="291">
       <c r="A291">
-        <v>126.93191998149462</v>
+        <v>126.93191946454721</v>
       </c>
     </row>
     <row r="292">
       <c r="A292">
-        <v>128.89622728993132</v>
+        <v>128.8962269412423</v>
       </c>
     </row>
     <row r="293">
       <c r="A293">
-        <v>130.06406196374036</v>
+        <v>130.06406166516118</v>
       </c>
     </row>
     <row r="294">
       <c r="A294">
-        <v>131.26672855217552</v>
+        <v>131.26672811526529</v>
       </c>
     </row>
     <row r="295">
       <c r="A295">
-        <v>132.26503364343486</v>
+        <v>132.26503321093097</v>
       </c>
     </row>
     <row r="296">
       <c r="A296">
-        <v>133.37214830427578</v>
+        <v>133.37214788646722</v>
       </c>
     </row>
     <row r="297">
       <c r="A297">
-        <v>133.9767752921197</v>
+        <v>133.97677489428921</v>
       </c>
     </row>
     <row r="298">
       <c r="A298">
-        <v>134.52157960815836</v>
+        <v>134.52157916684246</v>
       </c>
     </row>
     <row r="299">
       <c r="A299">
-        <v>136.40969071434569</v>
+        <v>136.40969021474569</v>
       </c>
     </row>
     <row r="300">
       <c r="A300">
-        <v>137.75941520515153</v>
+        <v>137.75941466687448</v>
       </c>
     </row>
     <row r="301">
       <c r="A301">
-        <v>138.13146818877263</v>
+        <v>138.13146768549711</v>
       </c>
     </row>
     <row r="302">
       <c r="A302">
-        <v>139.01094083181437</v>
+        <v>139.01094034801577</v>
       </c>
     </row>
     <row r="303">
       <c r="A303">
-        <v>139.60547083159361</v>
+        <v>139.60547026030952</v>
       </c>
     </row>
     <row r="304">
       <c r="A304">
-        <v>139.73823100766435</v>
+        <v>139.73823049797065</v>
       </c>
     </row>
     <row r="305">
       <c r="A305">
-        <v>139.82640639980818</v>
+        <v>139.82640587215903</v>
       </c>
     </row>
     <row r="306">
       <c r="A306">
-        <v>140.29958032341816</v>
+        <v>140.29957928029037</v>
       </c>
     </row>
     <row r="307">
       <c r="A307">
-        <v>140.32787310981632</v>
+        <v>140.32787206767603</v>
       </c>
     </row>
     <row r="308">
       <c r="A308">
-        <v>140.42789410363187</v>
+        <v>140.42789300381742</v>
       </c>
     </row>
     <row r="309">
       <c r="A309">
-        <v>140.47139060724462</v>
+        <v>140.47138952240562</v>
       </c>
     </row>
     <row r="310">
       <c r="A310">
-        <v>140.4214015824279</v>
+        <v>140.42140058662989</v>
       </c>
     </row>
     <row r="311">
       <c r="A311">
-        <v>140.02726844125414</v>
+        <v>140.0272674488771</v>
       </c>
     </row>
     <row r="312">
       <c r="A312">
-        <v>139.74631142174204</v>
+        <v>139.74631042611074</v>
       </c>
     </row>
     <row r="313">
       <c r="A313">
-        <v>139.60540514711832</v>
+        <v>139.60540386216169</v>
       </c>
     </row>
     <row r="314">
       <c r="A314">
-        <v>139.3650871374262</v>
+        <v>139.36508586377965</v>
       </c>
     </row>
     <row r="315">
       <c r="A315">
-        <v>139.02862028552502</v>
+        <v>139.02861901043013</v>
       </c>
     </row>
     <row r="316">
       <c r="A316">
-        <v>138.6612474639995</v>
+        <v>138.6612461456869</v>
       </c>
     </row>
     <row r="317">
       <c r="A317">
-        <v>138.46211209549298</v>
+        <v>138.46211080259511</v>
       </c>
     </row>
     <row r="318">
       <c r="A318">
-        <v>137.97291265583672</v>
+        <v>137.97291137064744</v>
       </c>
     </row>
     <row r="319">
       <c r="A319">
-        <v>137.5557383691463</v>
+        <v>137.55573709593574</v>
       </c>
     </row>
     <row r="320">
       <c r="A320">
-        <v>137.21433766981002</v>
+        <v>137.21433625690619</v>
       </c>
     </row>
     <row r="321">
       <c r="A321">
-        <v>137.05727502857386</v>
+        <v>137.05727362783986</v>
       </c>
     </row>
     <row r="322">
       <c r="A322">
-        <v>136.83366129884087</v>
+        <v>136.83365988856667</v>
       </c>
     </row>
     <row r="323">
       <c r="A323">
-        <v>136.32751746158613</v>
+        <v>136.32751586562662</v>
       </c>
     </row>
     <row r="324">
       <c r="A324">
-        <v>135.88321350756448</v>
+        <v>135.88321191213649</v>
       </c>
     </row>
     <row r="325">
       <c r="A325">
-        <v>135.53525165974781</v>
+        <v>135.53525006936272</v>
       </c>
     </row>
     <row r="326">
       <c r="A326">
-        <v>135.06032506729287</v>
+        <v>135.06032349690338</v>
       </c>
     </row>
     <row r="327">
       <c r="A327">
-        <v>134.60227389380131</v>
+        <v>134.60227241597514</v>
       </c>
     </row>
     <row r="328">
       <c r="A328">
-        <v>134.13261991765657</v>
+        <v>134.13261844886418</v>
       </c>
     </row>
     <row r="329">
       <c r="A329">
-        <v>133.68936430728729</v>
+        <v>133.68936283762577</v>
       </c>
     </row>
     <row r="330">
       <c r="A330">
-        <v>133.41075312936894</v>
+        <v>133.41075163606163</v>
       </c>
     </row>
     <row r="331">
       <c r="A331">
-        <v>133.11126173264927</v>
+        <v>133.1112603054203</v>
       </c>
     </row>
     <row r="332">
       <c r="A332">
-        <v>132.70261010970768</v>
+        <v>132.7026086657433</v>
       </c>
     </row>
     <row r="333">
       <c r="A333">
-        <v>132.22747188248084</v>
+        <v>132.22747043492441</v>
       </c>
     </row>
     <row r="334">
       <c r="A334">
-        <v>131.86273646077632</v>
+        <v>131.8627351856623</v>
       </c>
     </row>
     <row r="335">
       <c r="A335">
-        <v>131.49152342408047</v>
+        <v>131.49152216561691</v>
       </c>
     </row>
     <row r="336">
       <c r="A336">
-        <v>131.1823338008993</v>
+        <v>131.18233255934069</v>
       </c>
     </row>
     <row r="337">
       <c r="A337">
-        <v>130.97076024296945</v>
+        <v>130.97075900493769</v>
       </c>
     </row>
     <row r="338">
       <c r="A338">
-        <v>130.63222775040063</v>
+        <v>130.63222655491501</v>
       </c>
     </row>
     <row r="339">
       <c r="A339">
-        <v>130.27568426768337</v>
+        <v>130.27568306984512</v>
       </c>
     </row>
     <row r="340">
       <c r="A340">
-        <v>129.85843217126086</v>
+        <v>129.85843099358016</v>
       </c>
     </row>
     <row r="341">
       <c r="A341">
-        <v>129.47926826107434</v>
+        <v>129.47926705990801</v>
       </c>
     </row>
     <row r="342">
       <c r="A342">
-        <v>129.29585612655623</v>
+        <v>129.29585486339479</v>
       </c>
     </row>
     <row r="343">
       <c r="A343">
-        <v>128.97861917441728</v>
+        <v>128.97861793092221</v>
       </c>
     </row>
     <row r="344">
       <c r="A344">
-        <v>128.70677021131434</v>
+        <v>128.70676897567205</v>
       </c>
     </row>
     <row r="345">
       <c r="A345">
-        <v>128.34516777369288</v>
+        <v>128.34516653486003</v>
       </c>
     </row>
     <row r="346">
       <c r="A346">
-        <v>128.12378189426616</v>
+        <v>128.12378063523528</v>
       </c>
     </row>
     <row r="347">
       <c r="A347">
-        <v>127.75709169689597</v>
+        <v>127.75709042975883</v>
       </c>
     </row>
     <row r="348">
       <c r="A348">
-        <v>127.38905358768442</v>
+        <v>127.38905226580781</v>
       </c>
     </row>
     <row r="349">
       <c r="A349">
-        <v>127.1566030588894</v>
+        <v>127.15660175634987</v>
       </c>
     </row>
     <row r="350">
       <c r="A350">
-        <v>126.86792239073067</v>
+        <v>126.86792109039544</v>
       </c>
     </row>
     <row r="351">
       <c r="A351">
-        <v>126.6156280947352</v>
+        <v>126.61562680284148</v>
       </c>
     </row>
     <row r="352">
       <c r="A352">
-        <v>126.19093324407824</v>
+        <v>126.19093195664234</v>
       </c>
     </row>
     <row r="353">
       <c r="A353">
-        <v>125.87604996642594</v>
+        <v>125.87604870268895</v>
       </c>
     </row>
     <row r="354">
       <c r="A354">
-        <v>125.53924075964939</v>
+        <v>125.53923947417385</v>
       </c>
     </row>
     <row r="355">
       <c r="A355">
-        <v>125.23573976154735</v>
+        <v>125.23573850885541</v>
       </c>
     </row>
     <row r="356">
       <c r="A356">
-        <v>125.03560123283984</v>
+        <v>125.0356000079118</v>
       </c>
     </row>
     <row r="357">
       <c r="A357">
-        <v>124.74462903466738</v>
+        <v>124.74462780286532</v>
       </c>
     </row>
     <row r="358">
       <c r="A358">
-        <v>124.46418319261289</v>
+        <v>124.4641819662655</v>
       </c>
     </row>
     <row r="359">
       <c r="A359">
-        <v>124.07744863370729</v>
+        <v>124.07744739456174</v>
       </c>
     </row>
     <row r="360">
       <c r="A360">
-        <v>123.69829084382671</v>
+        <v>123.69828961921192</v>
       </c>
     </row>
     <row r="361">
       <c r="A361">
-        <v>123.41987162017348</v>
+        <v>123.41987044630979</v>
       </c>
     </row>
     <row r="362">
       <c r="A362">
-        <v>123.37634568098106</v>
+        <v>123.37634448263637</v>
       </c>
     </row>
     <row r="363">
       <c r="A363">
-        <v>123.08001445054768</v>
+        <v>123.08001327161202</v>
       </c>
     </row>
     <row r="364">
       <c r="A364">
-        <v>122.80601540934275</v>
+        <v>122.80601425261501</v>
       </c>
     </row>
     <row r="365">
       <c r="A365">
-        <v>122.69560328737286</v>
+        <v>122.69560211992943</v>
       </c>
     </row>
     <row r="366">
       <c r="A366">
-        <v>122.48632352735886</v>
+        <v>122.48632237269854</v>
       </c>
     </row>
     <row r="367">
       <c r="A367">
-        <v>122.29610479247073</v>
+        <v>122.29610367653282</v>
       </c>
     </row>
     <row r="368">
       <c r="A368">
-        <v>122.08232642803631</v>
+        <v>122.08232531703469</v>
       </c>
     </row>
     <row r="369">
       <c r="A369">
-        <v>122.18653211962933</v>
+        <v>122.18653100223734</v>
       </c>
     </row>
     <row r="370">
       <c r="A370">
-        <v>122.05028792441534</v>
+        <v>122.05028678615498</v>
       </c>
     </row>
     <row r="371">
       <c r="A371">
-        <v>121.98319470333324</v>
+        <v>121.98319357615097</v>
       </c>
     </row>
     <row r="372">
       <c r="A372">
-        <v>121.79279945138329</v>
+        <v>121.79279830797017</v>
       </c>
     </row>
     <row r="373">
       <c r="A373">
-        <v>121.55661888586268</v>
+        <v>121.55661776442504</v>
       </c>
     </row>
     <row r="374">
       <c r="A374">
-        <v>121.34387616477784</v>
+        <v>121.34387502348525</v>
       </c>
     </row>
     <row r="375">
       <c r="A375">
-        <v>121.12399848796107</v>
+        <v>121.12399735532949</v>
       </c>
     </row>
     <row r="376">
       <c r="A376">
-        <v>120.85316111194221</v>
+        <v>120.85315997174918</v>
       </c>
     </row>
     <row r="377">
       <c r="A377">
-        <v>120.82884429458184</v>
+        <v>120.82884311828496</v>
       </c>
     </row>
     <row r="378">
       <c r="A378">
-        <v>120.63012254401173</v>
+        <v>120.63012141651959</v>
       </c>
     </row>
     <row r="379">
       <c r="A379">
-        <v>120.47483505075351</v>
+        <v>120.47483392171738</v>
       </c>
     </row>
     <row r="380">
       <c r="A380">
-        <v>120.25109299115087</v>
+        <v>120.25109188228627</v>
       </c>
     </row>
     <row r="381">
       <c r="A381">
-        <v>119.99357098422392</v>
+        <v>119.99356987877219</v>
       </c>
     </row>
     <row r="382">
       <c r="A382">
-        <v>119.71283977290004</v>
+        <v>119.71283866241009</v>
       </c>
     </row>
     <row r="383">
       <c r="A383">
-        <v>119.53144752324651</v>
+        <v>119.53144641376365</v>
       </c>
     </row>
     <row r="384">
       <c r="A384">
-        <v>119.35867354301645</v>
+        <v>119.35867248912875</v>
       </c>
     </row>
     <row r="385">
       <c r="A385">
-        <v>119.13600494387089</v>
+        <v>119.13600391935938</v>
       </c>
     </row>
     <row r="386">
       <c r="A386">
-        <v>118.98801150009938</v>
+        <v>118.98801052348738</v>
       </c>
     </row>
     <row r="387">
       <c r="A387">
-        <v>118.74714983209711</v>
+        <v>118.74714889644366</v>
       </c>
     </row>
     <row r="388">
       <c r="A388">
-        <v>118.53713276823711</v>
+        <v>118.5371318749919</v>
       </c>
     </row>
     <row r="389">
       <c r="A389">
-        <v>118.41244816992423</v>
+        <v>118.41244731346805</v>
       </c>
     </row>
     <row r="390">
       <c r="A390">
-        <v>118.40892203239272</v>
+        <v>118.40892114647735</v>
       </c>
     </row>
     <row r="391">
       <c r="A391">
-        <v>118.30100437986547</v>
+        <v>118.30100350468976</v>
       </c>
     </row>
     <row r="392">
       <c r="A392">
-        <v>118.11688821528469</v>
+        <v>118.11688735656583</v>
       </c>
     </row>
     <row r="393">
       <c r="A393">
-        <v>117.94753029083604</v>
+        <v>117.9475294203409</v>
       </c>
     </row>
     <row r="394">
       <c r="A394">
-        <v>117.71426430504717</v>
+        <v>117.71426346967239</v>
       </c>
     </row>
     <row r="395">
       <c r="A395">
-        <v>117.49234112115501</v>
+        <v>117.49234029976469</v>
       </c>
     </row>
     <row r="396">
       <c r="A396">
-        <v>117.15936447947902</v>
+        <v>117.15936366056241</v>
       </c>
     </row>
     <row r="397">
       <c r="A397">
-        <v>116.94811895274097</v>
+        <v>116.94811814571619</v>
       </c>
     </row>
     <row r="398">
       <c r="A398">
-        <v>116.8410960010002</v>
+        <v>116.84109525098374</v>
       </c>
     </row>
     <row r="399">
       <c r="A399">
-        <v>116.68426958422094</v>
+        <v>116.68426885008191</v>
       </c>
     </row>
     <row r="400">
       <c r="A400">
-        <v>116.64443824400372</v>
+        <v>116.64443750798819</v>
       </c>
     </row>
     <row r="401">
       <c r="A401">
-        <v>116.38968229040536</v>
+        <v>116.38968154640415</v>
       </c>
     </row>
     <row r="402">
       <c r="A402">
-        <v>116.13877795103475</v>
+        <v>116.13877722569688</v>
       </c>
     </row>
     <row r="403">
       <c r="A403">
-        <v>115.93654880592855</v>
+        <v>115.93654805535203</v>
       </c>
     </row>
     <row r="404">
       <c r="A404">
-        <v>115.74655210703057</v>
+        <v>115.74655135872209</v>
       </c>
     </row>
     <row r="405">
       <c r="A405">
-        <v>115.52715491723093</v>
+        <v>115.5271541687775</v>
       </c>
     </row>
     <row r="406">
       <c r="A406">
-        <v>115.28060773711741</v>
+        <v>115.28060702543448</v>
       </c>
     </row>
     <row r="407">
       <c r="A407">
-        <v>115.08291797396681</v>
+        <v>115.0829172624212</v>
       </c>
     </row>
     <row r="408">
       <c r="A408">
-        <v>114.95757699709435</v>
+        <v>114.95757632962243</v>
       </c>
     </row>
     <row r="409">
       <c r="A409">
-        <v>114.80903275506724</v>
+        <v>114.80903208543903</v>
       </c>
     </row>
     <row r="410">
       <c r="A410">
-        <v>114.61768206977409</v>
+        <v>114.61768139961323</v>
       </c>
     </row>
     <row r="411">
       <c r="A411">
-        <v>114.67561526233693</v>
+        <v>114.67561463436003</v>
       </c>
     </row>
     <row r="412">
       <c r="A412">
-        <v>114.43896835152924</v>
+        <v>114.43896772935815</v>
       </c>
     </row>
     <row r="413">
       <c r="A413">
-        <v>114.36329423841782</v>
+        <v>114.36329370842085</v>
       </c>
     </row>
     <row r="414">
       <c r="A414">
-        <v>114.25094988384251</v>
+        <v>114.25094933444193</v>
       </c>
     </row>
     <row r="415">
       <c r="A415">
-        <v>114.18984732207676</v>
+        <v>114.18984677377621</v>
       </c>
     </row>
     <row r="416">
       <c r="A416">
-        <v>114.03080773339202</v>
+        <v>114.03080717902499</v>
       </c>
     </row>
     <row r="417">
       <c r="A417">
-        <v>113.90409396123729</v>
+        <v>113.90409343989572</v>
       </c>
     </row>
     <row r="418">
       <c r="A418">
-        <v>113.70798475799026</v>
+        <v>113.70798423917681</v>
       </c>
     </row>
     <row r="419">
       <c r="A419">
-        <v>113.50314495560785</v>
+        <v>113.50314446425736</v>
       </c>
     </row>
     <row r="420">
       <c r="A420">
-        <v>113.35957844183443</v>
+        <v>113.35957791861921</v>
       </c>
     </row>
     <row r="421">
       <c r="A421">
-        <v>113.13574302230244</v>
+        <v>113.13574250112856</v>
       </c>
     </row>
     <row r="422">
       <c r="A422">
-        <v>113.02275883269451</v>
+        <v>113.02275829043224</v>
       </c>
     </row>
     <row r="423">
       <c r="A423">
-        <v>112.79254825803562</v>
+        <v>112.7925477290341</v>
       </c>
     </row>
     <row r="424">
       <c r="A424">
-        <v>112.60985056081223</v>
+        <v>112.60985001068454</v>
       </c>
     </row>
     <row r="425">
       <c r="A425">
-        <v>112.39338758900377</v>
+        <v>112.39338700259638</v>
       </c>
     </row>
     <row r="426">
       <c r="A426">
-        <v>112.2442282165398</v>
+        <v>112.24422765771119</v>
       </c>
     </row>
     <row r="427">
       <c r="A427">
-        <v>112.05751703182692</v>
+        <v>112.0575164467284</v>
       </c>
     </row>
     <row r="428">
       <c r="A428">
-        <v>111.99684827615285</v>
+        <v>111.99684772310819</v>
       </c>
     </row>
     <row r="429">
       <c r="A429">
-        <v>111.87166946822107</v>
+        <v>111.87166896730487</v>
       </c>
     </row>
     <row r="430">
       <c r="A430">
-        <v>111.6735181314848</v>
+        <v>111.67351763155008</v>
       </c>
     </row>
     <row r="431">
       <c r="A431">
-        <v>111.44204746749537</v>
+        <v>111.44204697093893</v>
       </c>
     </row>
     <row r="432">
       <c r="A432">
-        <v>111.36552419738067</v>
+        <v>111.36552368641694</v>
       </c>
     </row>
     <row r="433">
       <c r="A433">
-        <v>111.19396373421225</v>
+        <v>111.19396318590712</v>
       </c>
     </row>
     <row r="434">
       <c r="A434">
-        <v>110.98377524715777</v>
+        <v>110.9837746790476</v>
       </c>
     </row>
     <row r="435">
       <c r="A435">
-        <v>110.82736817678307</v>
+        <v>110.82736760943894</v>
       </c>
     </row>
     <row r="436">
       <c r="A436">
-        <v>110.60329192569982</v>
+        <v>110.60329134043604</v>
       </c>
     </row>
     <row r="437">
       <c r="A437">
-        <v>110.32569365789389</v>
+        <v>110.32569307329904</v>
       </c>
     </row>
     <row r="438">
       <c r="A438">
-        <v>110.04267589911682</v>
+        <v>110.04267531388626</v>
       </c>
     </row>
     <row r="439">
       <c r="A439">
-        <v>109.85915177312894</v>
+        <v>109.85915113960989</v>
       </c>
     </row>
     <row r="440">
       <c r="A440">
-        <v>109.57586120409705</v>
+        <v>109.57586056716896</v>
       </c>
     </row>
     <row r="441">
       <c r="A441">
-        <v>109.37437582218449</v>
+        <v>109.37437519988838</v>
       </c>
     </row>
     <row r="442">
       <c r="A442">
-        <v>109.13104694136352</v>
+        <v>109.13104631918655</v>
       </c>
     </row>
     <row r="443">
       <c r="A443">
-        <v>108.84643627171444</v>
+        <v>108.84643565302498</v>
       </c>
     </row>
     <row r="444">
       <c r="A444">
-        <v>108.54390980292142</v>
+        <v>108.5439091894569</v>
       </c>
     </row>
     <row r="445">
       <c r="A445">
-        <v>108.30210859056754</v>
+        <v>108.30210799353269</v>
       </c>
     </row>
     <row r="446">
       <c r="A446">
-        <v>108.06428939539279</v>
+        <v>108.06428883157513</v>
       </c>
     </row>
     <row r="447">
       <c r="A447">
-        <v>107.77603443996662</v>
+        <v>107.7760338920633</v>
       </c>
     </row>
     <row r="448">
       <c r="A448">
-        <v>107.47498347064727</v>
+        <v>107.47498290965281</v>
       </c>
     </row>
     <row r="449">
       <c r="A449">
-        <v>107.16804393900611</v>
+        <v>107.16804338194578</v>
       </c>
     </row>
     <row r="450">
       <c r="A450">
-        <v>106.87183622714659</v>
+        <v>106.87183567082732</v>
       </c>
     </row>
     <row r="451">
       <c r="A451">
-        <v>106.57958795175203</v>
+        <v>106.57958739223889</v>
       </c>
     </row>
     <row r="452">
       <c r="A452">
-        <v>106.2970154844286</v>
+        <v>106.29701492045344</v>
       </c>
     </row>
     <row r="453">
       <c r="A453">
-        <v>105.99180290433307</v>
+        <v>105.99180234214333</v>
       </c>
     </row>
     <row r="454">
       <c r="A454">
-        <v>105.6924324007577</v>
+        <v>105.6924318413181</v>
       </c>
     </row>
     <row r="455">
       <c r="A455">
-        <v>105.39227075595876</v>
+        <v>105.39227020338897</v>
       </c>
     </row>
     <row r="456">
       <c r="A456">
-        <v>105.10389873122229</v>
+        <v>105.10389817203404</v>
       </c>
     </row>
     <row r="457">
       <c r="A457">
-        <v>104.8135045869617</v>
+        <v>104.81350402517199</v>
       </c>
     </row>
     <row r="458">
       <c r="A458">
-        <v>104.513167907645</v>
+        <v>104.51316735180536</v>
       </c>
     </row>
     <row r="459">
       <c r="A459">
-        <v>104.20940753394883</v>
+        <v>104.20940698008692</v>
       </c>
     </row>
     <row r="460">
       <c r="A460">
-        <v>103.90340811893256</v>
+        <v>103.90340757461783</v>
       </c>
     </row>
     <row r="461">
       <c r="A461">
-        <v>103.59835548504643</v>
+        <v>103.59835494266066</v>
       </c>
     </row>
     <row r="462">
       <c r="A462">
-        <v>103.31204241290003</v>
+        <v>103.3120418811104</v>
       </c>
     </row>
     <row r="463">
       <c r="A463">
-        <v>103.05463368370164</v>
+        <v>103.05463314984409</v>
       </c>
     </row>
     <row r="464">
       <c r="A464">
-        <v>102.76840478969116</v>
+        <v>102.76840425397954</v>
       </c>
     </row>
   </sheetData>
